--- a/CatLearningfMRI/Experiment/UnsupervisedSparse_test.xlsx
+++ b/CatLearningfMRI/Experiment/UnsupervisedSparse_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>StimType</t>
   </si>
@@ -46,13 +46,118 @@
   </si>
   <si>
     <t>contr1</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>contr2</t>
+  </si>
+  <si>
+    <t>contr3</t>
+  </si>
+  <si>
+    <t>contr4</t>
+  </si>
+  <si>
+    <t>contr5</t>
+  </si>
+  <si>
+    <t>contr6</t>
+  </si>
+  <si>
+    <t>contr7</t>
+  </si>
+  <si>
+    <t>contr8</t>
+  </si>
+  <si>
+    <t>contr9</t>
+  </si>
+  <si>
+    <t>contr10</t>
+  </si>
+  <si>
+    <t>contr11</t>
+  </si>
+  <si>
+    <t>contr12</t>
+  </si>
+  <si>
+    <t>contr13</t>
+  </si>
+  <si>
+    <t>contr14</t>
+  </si>
+  <si>
+    <t>contr15</t>
+  </si>
+  <si>
+    <t>contr16</t>
+  </si>
+  <si>
+    <t>catch2</t>
+  </si>
+  <si>
+    <t>catch3</t>
+  </si>
+  <si>
+    <t>catch4</t>
+  </si>
+  <si>
+    <t>catch5</t>
+  </si>
+  <si>
+    <t>catch6</t>
+  </si>
+  <si>
+    <t>catch7</t>
+  </si>
+  <si>
+    <t>catch8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +177,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,8 +213,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -438,60 +551,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
